--- a/DB/schemaDB.xlsx
+++ b/DB/schemaDB.xlsx
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,13 +399,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -412,9 +413,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="647700"/>
-          <a:ext cx="754380" cy="198120"/>
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="640080"/>
+          <a:ext cx="739140" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -713,7 +714,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +794,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>3</v>
@@ -832,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">

--- a/DB/schemaDB.xlsx
+++ b/DB/schemaDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t xml:space="preserve">Meteo</t>
   </si>
@@ -103,10 +103,7 @@
     <t xml:space="preserve">pseudo_client</t>
   </si>
   <si>
-    <t xml:space="preserve">prenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom </t>
+    <t xml:space="preserve">INT []</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,6 +354,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,9 +444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>924480</xdr:colOff>
+      <xdr:colOff>924120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -454,8 +455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077960" y="647640"/>
-          <a:ext cx="893520" cy="205200"/>
+          <a:off x="7076160" y="647640"/>
+          <a:ext cx="893160" cy="204840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -488,16 +489,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>963720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:colOff>50400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -506,8 +507,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10218600" y="663120"/>
-          <a:ext cx="913680" cy="380160"/>
+          <a:off x="9303840" y="282600"/>
+          <a:ext cx="913320" cy="379800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -540,16 +541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>752760</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -558,7 +559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4106880" y="639360"/>
+          <a:off x="3383640" y="707760"/>
           <a:ext cx="737640" cy="6840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -593,7 +594,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
@@ -610,8 +611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10175040" y="643320"/>
-          <a:ext cx="911520" cy="1645200"/>
+          <a:off x="10173600" y="643320"/>
+          <a:ext cx="911160" cy="1645200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -650,18 +651,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U44" activeCellId="0" sqref="P44:U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.1"/>
@@ -670,7 +671,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,62 +984,139 @@
         <v>6</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/DB/schemaDB.xlsx
+++ b/DB/schemaDB.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Calvinhac\Desktop\ProjetWEB\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,100 +24,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Meteo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR(255)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_offre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom_vendeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_debut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR(255) UNIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urbanisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moyen_transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ville_depart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_offre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prix_offre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT []</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+  <si>
+    <t>Meteo</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Offre</t>
+  </si>
+  <si>
+    <t>Vendeur</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>id_offre</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>nom_vendeur</t>
+  </si>
+  <si>
+    <t>date_debut</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>pays</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>VARCHAR(255) UNIQUE</t>
+  </si>
+  <si>
+    <t>date_fin</t>
+  </si>
+  <si>
+    <t>environnement</t>
+  </si>
+  <si>
+    <t>mdp</t>
+  </si>
+  <si>
+    <t>meteo</t>
+  </si>
+  <si>
+    <t>urbanisme</t>
+  </si>
+  <si>
+    <t>moyen_transport</t>
+  </si>
+  <si>
+    <t>ville_depart</t>
+  </si>
+  <si>
+    <t>date_offre</t>
+  </si>
+  <si>
+    <t>prix_offre</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>pseudo_client</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(255) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,23 +132,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -146,7 +141,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -154,15 +149,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,171 +207,112 @@
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -428,14 +371,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>30960</xdr:colOff>
@@ -448,9 +407,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -466,10 +425,10 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:headEnd len="med" type="triangle" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -487,7 +446,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>205200</xdr:colOff>
@@ -500,9 +459,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -518,10 +477,10 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:headEnd len="med" type="triangle" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -539,7 +498,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>272880</xdr:colOff>
@@ -552,9 +511,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -570,10 +529,10 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:headEnd len="med" type="triangle" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -591,7 +550,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
@@ -604,9 +563,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -622,10 +581,10 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:headEnd len="med" type="triangle" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -646,35 +605,293 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U44" activeCellId="0" sqref="P44:U49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.65"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" customWidth="1"/>
+    <col min="14" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -691,7 +908,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -708,7 +925,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -733,7 +950,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10" t="s">
@@ -766,7 +983,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="18" t="s">
@@ -799,7 +1016,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="18" t="s">
@@ -832,7 +1049,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="13" t="s">
@@ -861,7 +1078,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -882,7 +1099,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -903,7 +1120,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -924,15 +1141,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="17" t="s">
         <v>24</v>
       </c>
@@ -947,15 +1164,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -968,28 +1185,28 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="19" t="s">
-        <v>6</v>
+      <c r="L13" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1001,16 +1218,16 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>13</v>
+      <c r="L14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1022,16 +1239,16 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="17" t="s">
+      <c r="L15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1040,15 +1257,21 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1057,15 +1280,19 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1074,15 +1301,19 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1099,7 +1330,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1116,15 +1347,9 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DB/schemaDB.xlsx
+++ b/DB/schemaDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Meteo</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>pseudo_client</t>
-  </si>
-  <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>nom</t>
   </si>
   <si>
     <t>Historique</t>
@@ -164,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +205,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D9FF"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -304,9 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +389,12 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF4D9FF"/>
+      <color rgb="FFDD8CFE"/>
+      <color rgb="FFFCC58E"/>
+      <color rgb="FFF88818"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -420,58 +435,6 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9303840" y="282600"/>
-          <a:ext cx="913320" cy="379800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 73937"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -871,7 +834,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,8 +1111,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="17" t="s">
         <v>24</v>
       </c>
@@ -1171,8 +1134,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1192,16 +1155,16 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1218,10 +1181,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="1"/>
@@ -1238,14 +1201,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1257,18 +1216,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="1"/>
+      <c r="I16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1280,7 +1235,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -1305,7 +1260,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="22"/>
